--- a/agile-server/src/main/resources/excelTemplate/storyImportTemplate.xlsx
+++ b/agile-server/src/main/resources/excelTemplate/storyImportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16320"/>
+    <workbookView windowHeight="16320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="storys" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>※ 填写前请务必阅读本说明
 ※ 请勿更改storys模板、sheet名称(单元格宽、高除外)
 ※ 打</t>
@@ -92,9 +86,9 @@
       </rPr>
       <t>为必填项
 ※ 其他说明
-  1) 迭代、系统、父工作项、重要程度请使用下拉选择(单击目标单元格，下拉箭头，如下拉表单没有需要的内容请在aido上自行新建后再次导出模板)
-  2) 故事名称字数不能超过200字
-  3) 业务价值是1~100的正整数，数字越大表示优先级高 预计工时只能填写正整数
+  1) 迭代、系统、父工作项、重要程度请使用下拉选择(单击目标单元格，下拉箭头，如下拉表单没有需要的内容请在系统上自行新建后再次导出模板)
+  2) 故事名称字数不能超过255个字
+  3) 优先级是1~100的正整数，数字越大表示优先级高 预计工时只能填写正整数
   4) 开始/结束日期必须大于等于今天,格式为：2017/12/7</t>
     </r>
   </si>
@@ -105,9 +99,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -142,9 +136,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,30 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +181,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -203,17 +196,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,11 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,16 +233,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,17 +266,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,7 +307,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +355,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,49 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +433,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,78 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +527,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,37 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,16 +598,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,145 +616,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1155,7 +1149,7 @@
   <sheetPr/>
   <dimension ref="A1:XET1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -17578,8 +17572,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
